--- a/newData.xlsx
+++ b/newData.xlsx
@@ -95,6 +95,69 @@
     <t xml:space="preserve">Pharmacy number</t>
   </si>
   <si>
+    <t xml:space="preserve">E70671523500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/25/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/29/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/08/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pillai, Shanta J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynthia Ruggeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$496.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$429.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$364.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$64.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">E70497201000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/14/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vergnani, Jason S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$100.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$86.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$73.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$12.95</t>
+  </si>
+  <si>
     <t xml:space="preserve">E70009690300</t>
   </si>
   <si>
@@ -107,15 +170,9 @@
     <t xml:space="preserve">06/13/2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arciaga, Paula A.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cynthia Ruggeiro</t>
-  </si>
-  <si>
     <t xml:space="preserve">$484.00</t>
   </si>
   <si>
@@ -128,12 +185,6 @@
     <t xml:space="preserve">$59.93</t>
   </si>
   <si>
-    <t xml:space="preserve">$0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">E70014976800</t>
   </si>
   <si>
@@ -563,25 +614,925 @@
     <t xml:space="preserve">$307.00</t>
   </si>
   <si>
+    <t xml:space="preserve">E68443412500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/13/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/15/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/24/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$486.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$419.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E68446814700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$175.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$140.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E68446867400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$546.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$226.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E68392489300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/08/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/10/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subramanian, Rajesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$698.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E68315704900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/02/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/03/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/17/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prychyna, Oksana S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$563.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$479.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E68008814500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/06/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/20/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$366.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$321.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$273.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$48.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E67893578400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/22/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/26/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chon, Christine Y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$713.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$448.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$381.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$67.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E67763611600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/14/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/15/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/29/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$416.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$336.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E67897015800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$311.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$184.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$179.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$5.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E67975209000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/13/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$82.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$28.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$24.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$4.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E67550293400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/28/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/29/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$251.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$149.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$127.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$22.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E68911936700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/26/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/25/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cline, Kelsey C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$253.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$121.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E67564830500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/25/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/30/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ongchin, Sharel C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$340.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$208.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$177.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$31.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E67603980800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/23/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/01/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spoonemore, Kerrie J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$230.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$121.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$103.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$18.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E67087548600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/18/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/20/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bautista, Jorielle R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E66737476100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/19/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/21/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/30/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miyano, John A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$463.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$273.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$232.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$40.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E66726910300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/14/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/20/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taagen, Sam R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$396.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E66773738900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/12/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/23/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/06/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamura, Wataru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$903.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$400.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$340.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$60.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E66789839900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/24/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$220.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$81.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$75.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$6.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E66790605000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$82.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$34.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$29.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$5.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E66631525300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/07/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goodman, Justin S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,976.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$632.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E66632940600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Polyclinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$2,677.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,435.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E66650095200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/13/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcorn, Garrett D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$175.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E66680527800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/15/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traughber, Sarah G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$900.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$321.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E66455487800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/23/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/26/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$564.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$257.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$218.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$38.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E66249430900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/01/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/19/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$496.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$262.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$91.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$171.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$155.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$16.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E66278772800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrigg, Alison B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$150.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$129.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$110.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$19.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E65820855400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/15/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/30/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/07/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E66246282100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/25/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/06/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E65254149400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/19/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$110.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$94.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E65116889100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/28/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/29/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hathaway, Tanya R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$704.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$639.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$543.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$95.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E65258720900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May, Caitlin J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$96.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$81.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$14.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E65918611300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/21/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/21/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E64674829200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/17/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/01/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,251.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$571.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$485.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$85.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E64266269500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/11/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/19/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnston, Dennis O.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,440.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$60.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$260.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$10.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E64293639400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/13/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/26/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,500.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$374.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$318.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$56.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E64294252700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puget Sound Gastroenterology Pllc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$833.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$708.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$125.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201509566300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/23/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/24/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member, Payee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$101.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E64000635800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/13/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/16/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/29/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feller, John K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$754.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$481.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$409.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$72.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E64203030700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/27/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$284.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$182.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E63689369100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/03/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/17/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/28/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,261.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E63502973100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/27/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/02/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/10/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$210.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$166.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$43.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$14.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$29.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E63371102900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/18/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/21/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$89.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E63371258100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$550.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$439.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E63412926400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/25/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,195.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$832.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$725.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$107.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E63412926401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$837.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$730.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E63413441000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$104.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$40.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E63413441001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$56.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$13.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$2.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E63425020500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/26/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$323.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$204.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$116.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$87.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E58584449200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/03/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/29/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/12/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$182.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$100.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grand Total</t>
   </si>
   <si>
-    <t xml:space="preserve">$14,892.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$9,504.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$7,740.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,764.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$500.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,189.63</t>
+    <t xml:space="preserve">$45,080.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$25,177.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$21,211.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$4,066.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1,432.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$2,457.54</t>
   </si>
   <si>
     <t xml:space="preserve">Grand total amounts include final claim amounts only. (It does not include original adjusted and pending claim amounts.)</t>
@@ -1751,31 +2702,31 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
         <v>34</v>
@@ -1784,7 +2735,7 @@
         <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
         <v>34</v>
@@ -1813,37 +2764,37 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
         <v>34</v>
@@ -1852,7 +2803,7 @@
         <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
         <v>34</v>
@@ -1881,43 +2832,43 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
         <v>59</v>
@@ -1952,35 +2903,35 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
       </c>
       <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
         <v>64</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>65</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>66</v>
       </c>
-      <c r="K7" t="s">
-        <v>67</v>
-      </c>
       <c r="L7" t="s">
         <v>34</v>
       </c>
@@ -1988,7 +2939,7 @@
         <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O7" t="s">
         <v>34</v>
@@ -2017,43 +2968,43 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
       </c>
       <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s">
         <v>73</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>74</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
         <v>75</v>
-      </c>
-      <c r="K8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
       </c>
       <c r="N8" t="s">
         <v>76</v>
@@ -2088,34 +3039,34 @@
         <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s">
         <v>34</v>
@@ -2124,7 +3075,7 @@
         <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O9" t="s">
         <v>34</v>
@@ -2153,37 +3104,37 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s">
         <v>34</v>
@@ -2192,7 +3143,7 @@
         <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
         <v>34</v>
@@ -2221,37 +3172,37 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
         <v>88</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" t="s">
-        <v>91</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
         <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s">
         <v>34</v>
@@ -2260,7 +3211,7 @@
         <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
         <v>34</v>
@@ -2289,22 +3240,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
@@ -2363,31 +3314,31 @@
         <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s">
         <v>34</v>
@@ -2396,7 +3347,7 @@
         <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O13" t="s">
         <v>34</v>
@@ -2425,37 +3376,37 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s">
         <v>34</v>
@@ -2464,7 +3415,7 @@
         <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O14" t="s">
         <v>34</v>
@@ -2493,37 +3444,37 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I15" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
         <v>34</v>
@@ -2532,7 +3483,7 @@
         <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="O15" t="s">
         <v>34</v>
@@ -2561,46 +3512,46 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
         <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O16" t="s">
         <v>34</v>
@@ -2629,37 +3580,37 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
         <v>136</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="K17" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="L17" t="s">
         <v>34</v>
@@ -2668,7 +3619,7 @@
         <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="O17" t="s">
         <v>34</v>
@@ -2697,46 +3648,46 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s">
         <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="O18" t="s">
         <v>34</v>
@@ -2765,37 +3716,37 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="K19" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s">
         <v>34</v>
@@ -2804,7 +3755,7 @@
         <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="O19" t="s">
         <v>34</v>
@@ -2833,46 +3784,46 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="M20" t="s">
         <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="O20" t="s">
         <v>34</v>
@@ -2901,37 +3852,37 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E21" t="s">
         <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s">
         <v>34</v>
@@ -2940,7 +3891,7 @@
         <v>34</v>
       </c>
       <c r="N21" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="O21" t="s">
         <v>34</v>
@@ -2969,46 +3920,46 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" t="s">
         <v>163</v>
-      </c>
-      <c r="B22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" t="s">
-        <v>166</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
         <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="I22" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="J22" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K22" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="M22" t="s">
         <v>34</v>
       </c>
       <c r="N22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O22" t="s">
         <v>34</v>
@@ -3037,37 +3988,37 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G23" t="s">
         <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s">
         <v>34</v>
@@ -3076,7 +4027,7 @@
         <v>34</v>
       </c>
       <c r="N23" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="O23" t="s">
         <v>34</v>
@@ -3105,46 +4056,46 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="K24" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="M24" t="s">
         <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="O24" t="s">
         <v>34</v>
@@ -3173,46 +4124,46 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="G25" t="s">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I25" t="s">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="L25" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="O25" t="s">
         <v>34</v>
@@ -3241,49 +4192,49 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="J26" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="L26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="O26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P26" t="s">
         <v>35</v>
@@ -3304,6 +4255,3542 @@
         <v>35</v>
       </c>
       <c r="V26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>35</v>
+      </c>
+      <c r="R27" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27" t="s">
+        <v>35</v>
+      </c>
+      <c r="U27" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
+        <v>203</v>
+      </c>
+      <c r="I28" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" t="s">
+        <v>35</v>
+      </c>
+      <c r="U28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>206</v>
+      </c>
+      <c r="I29" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29" t="s">
+        <v>35</v>
+      </c>
+      <c r="S29" t="s">
+        <v>35</v>
+      </c>
+      <c r="T29" t="s">
+        <v>35</v>
+      </c>
+      <c r="U29" t="s">
+        <v>35</v>
+      </c>
+      <c r="V29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>212</v>
+      </c>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>35</v>
+      </c>
+      <c r="R30" t="s">
+        <v>35</v>
+      </c>
+      <c r="S30" t="s">
+        <v>35</v>
+      </c>
+      <c r="T30" t="s">
+        <v>35</v>
+      </c>
+      <c r="U30" t="s">
+        <v>35</v>
+      </c>
+      <c r="V30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s">
+        <v>218</v>
+      </c>
+      <c r="I31" t="s">
+        <v>219</v>
+      </c>
+      <c r="J31" t="s">
+        <v>219</v>
+      </c>
+      <c r="K31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" t="s">
+        <v>34</v>
+      </c>
+      <c r="O31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>35</v>
+      </c>
+      <c r="R31" t="s">
+        <v>35</v>
+      </c>
+      <c r="S31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T31" t="s">
+        <v>35</v>
+      </c>
+      <c r="U31" t="s">
+        <v>35</v>
+      </c>
+      <c r="V31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" t="s">
+        <v>225</v>
+      </c>
+      <c r="J32" t="s">
+        <v>226</v>
+      </c>
+      <c r="K32" t="s">
+        <v>227</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O32" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>35</v>
+      </c>
+      <c r="R32" t="s">
+        <v>35</v>
+      </c>
+      <c r="S32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T32" t="s">
+        <v>35</v>
+      </c>
+      <c r="U32" t="s">
+        <v>35</v>
+      </c>
+      <c r="V32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" t="s">
+        <v>232</v>
+      </c>
+      <c r="I33" t="s">
+        <v>233</v>
+      </c>
+      <c r="J33" t="s">
+        <v>234</v>
+      </c>
+      <c r="K33" t="s">
+        <v>235</v>
+      </c>
+      <c r="L33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" t="s">
+        <v>235</v>
+      </c>
+      <c r="O33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>35</v>
+      </c>
+      <c r="R33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T33" t="s">
+        <v>35</v>
+      </c>
+      <c r="U33" t="s">
+        <v>35</v>
+      </c>
+      <c r="V33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D34" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" t="s">
+        <v>240</v>
+      </c>
+      <c r="I34" t="s">
+        <v>241</v>
+      </c>
+      <c r="J34" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>35</v>
+      </c>
+      <c r="R34" t="s">
+        <v>35</v>
+      </c>
+      <c r="S34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T34" t="s">
+        <v>35</v>
+      </c>
+      <c r="U34" t="s">
+        <v>35</v>
+      </c>
+      <c r="V34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="s">
+        <v>243</v>
+      </c>
+      <c r="I35" t="s">
+        <v>244</v>
+      </c>
+      <c r="J35" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L35" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" t="s">
+        <v>246</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>35</v>
+      </c>
+      <c r="R35" t="s">
+        <v>35</v>
+      </c>
+      <c r="S35" t="s">
+        <v>35</v>
+      </c>
+      <c r="T35" t="s">
+        <v>35</v>
+      </c>
+      <c r="U35" t="s">
+        <v>35</v>
+      </c>
+      <c r="V35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" t="s">
+        <v>248</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="s">
+        <v>249</v>
+      </c>
+      <c r="I36" t="s">
+        <v>250</v>
+      </c>
+      <c r="J36" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" t="s">
+        <v>252</v>
+      </c>
+      <c r="L36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" t="s">
+        <v>252</v>
+      </c>
+      <c r="O36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S36" t="s">
+        <v>35</v>
+      </c>
+      <c r="T36" t="s">
+        <v>35</v>
+      </c>
+      <c r="U36" t="s">
+        <v>35</v>
+      </c>
+      <c r="V36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37" t="s">
+        <v>256</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" t="s">
+        <v>257</v>
+      </c>
+      <c r="I37" t="s">
+        <v>258</v>
+      </c>
+      <c r="J37" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" t="s">
+        <v>260</v>
+      </c>
+      <c r="L37" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" t="s">
+        <v>260</v>
+      </c>
+      <c r="O37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>35</v>
+      </c>
+      <c r="R37" t="s">
+        <v>35</v>
+      </c>
+      <c r="S37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U37" t="s">
+        <v>35</v>
+      </c>
+      <c r="V37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D38" t="s">
+        <v>264</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s">
+        <v>266</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>267</v>
+      </c>
+      <c r="K38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" t="s">
+        <v>34</v>
+      </c>
+      <c r="N38" t="s">
+        <v>34</v>
+      </c>
+      <c r="O38" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>35</v>
+      </c>
+      <c r="R38" t="s">
+        <v>35</v>
+      </c>
+      <c r="S38" t="s">
+        <v>35</v>
+      </c>
+      <c r="T38" t="s">
+        <v>35</v>
+      </c>
+      <c r="U38" t="s">
+        <v>35</v>
+      </c>
+      <c r="V38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" t="s">
+        <v>256</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s">
+        <v>272</v>
+      </c>
+      <c r="I39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J39" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39" t="s">
+        <v>275</v>
+      </c>
+      <c r="O39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T39" t="s">
+        <v>35</v>
+      </c>
+      <c r="U39" t="s">
+        <v>35</v>
+      </c>
+      <c r="V39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>276</v>
+      </c>
+      <c r="B40" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" t="s">
+        <v>278</v>
+      </c>
+      <c r="D40" t="s">
+        <v>238</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" t="s">
+        <v>280</v>
+      </c>
+      <c r="I40" t="s">
+        <v>281</v>
+      </c>
+      <c r="J40" t="s">
+        <v>282</v>
+      </c>
+      <c r="K40" t="s">
+        <v>283</v>
+      </c>
+      <c r="L40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N40" t="s">
+        <v>283</v>
+      </c>
+      <c r="O40" t="s">
+        <v>34</v>
+      </c>
+      <c r="P40" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>35</v>
+      </c>
+      <c r="R40" t="s">
+        <v>35</v>
+      </c>
+      <c r="S40" t="s">
+        <v>35</v>
+      </c>
+      <c r="T40" t="s">
+        <v>35</v>
+      </c>
+      <c r="U40" t="s">
+        <v>35</v>
+      </c>
+      <c r="V40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>284</v>
+      </c>
+      <c r="B41" t="s">
+        <v>285</v>
+      </c>
+      <c r="C41" t="s">
+        <v>286</v>
+      </c>
+      <c r="D41" t="s">
+        <v>287</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" t="s">
+        <v>225</v>
+      </c>
+      <c r="J41" t="s">
+        <v>226</v>
+      </c>
+      <c r="K41" t="s">
+        <v>227</v>
+      </c>
+      <c r="L41" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" t="s">
+        <v>227</v>
+      </c>
+      <c r="O41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>35</v>
+      </c>
+      <c r="R41" t="s">
+        <v>35</v>
+      </c>
+      <c r="S41" t="s">
+        <v>35</v>
+      </c>
+      <c r="T41" t="s">
+        <v>35</v>
+      </c>
+      <c r="U41" t="s">
+        <v>35</v>
+      </c>
+      <c r="V41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" t="s">
+        <v>292</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>293</v>
+      </c>
+      <c r="G42" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" t="s">
+        <v>294</v>
+      </c>
+      <c r="I42" t="s">
+        <v>295</v>
+      </c>
+      <c r="J42" t="s">
+        <v>296</v>
+      </c>
+      <c r="K42" t="s">
+        <v>297</v>
+      </c>
+      <c r="L42" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" t="s">
+        <v>297</v>
+      </c>
+      <c r="O42" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>35</v>
+      </c>
+      <c r="R42" t="s">
+        <v>35</v>
+      </c>
+      <c r="S42" t="s">
+        <v>35</v>
+      </c>
+      <c r="T42" t="s">
+        <v>35</v>
+      </c>
+      <c r="U42" t="s">
+        <v>35</v>
+      </c>
+      <c r="V42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43" t="s">
+        <v>299</v>
+      </c>
+      <c r="C43" t="s">
+        <v>300</v>
+      </c>
+      <c r="D43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" t="s">
+        <v>302</v>
+      </c>
+      <c r="I43" t="s">
+        <v>241</v>
+      </c>
+      <c r="J43" t="s">
+        <v>241</v>
+      </c>
+      <c r="K43" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" t="s">
+        <v>34</v>
+      </c>
+      <c r="N43" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P43" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>35</v>
+      </c>
+      <c r="R43" t="s">
+        <v>35</v>
+      </c>
+      <c r="S43" t="s">
+        <v>35</v>
+      </c>
+      <c r="T43" t="s">
+        <v>35</v>
+      </c>
+      <c r="U43" t="s">
+        <v>35</v>
+      </c>
+      <c r="V43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" t="s">
+        <v>304</v>
+      </c>
+      <c r="C44" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="s">
+        <v>308</v>
+      </c>
+      <c r="I44" t="s">
+        <v>309</v>
+      </c>
+      <c r="J44" t="s">
+        <v>310</v>
+      </c>
+      <c r="K44" t="s">
+        <v>311</v>
+      </c>
+      <c r="L44" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" t="s">
+        <v>311</v>
+      </c>
+      <c r="O44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>35</v>
+      </c>
+      <c r="R44" t="s">
+        <v>35</v>
+      </c>
+      <c r="S44" t="s">
+        <v>35</v>
+      </c>
+      <c r="T44" t="s">
+        <v>35</v>
+      </c>
+      <c r="U44" t="s">
+        <v>35</v>
+      </c>
+      <c r="V44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>312</v>
+      </c>
+      <c r="B45" t="s">
+        <v>304</v>
+      </c>
+      <c r="C45" t="s">
+        <v>313</v>
+      </c>
+      <c r="D45" t="s">
+        <v>306</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
+        <v>301</v>
+      </c>
+      <c r="G45" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" t="s">
+        <v>314</v>
+      </c>
+      <c r="I45" t="s">
+        <v>315</v>
+      </c>
+      <c r="J45" t="s">
+        <v>316</v>
+      </c>
+      <c r="K45" t="s">
+        <v>317</v>
+      </c>
+      <c r="L45" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" t="s">
+        <v>317</v>
+      </c>
+      <c r="O45" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>35</v>
+      </c>
+      <c r="R45" t="s">
+        <v>35</v>
+      </c>
+      <c r="S45" t="s">
+        <v>35</v>
+      </c>
+      <c r="T45" t="s">
+        <v>35</v>
+      </c>
+      <c r="U45" t="s">
+        <v>35</v>
+      </c>
+      <c r="V45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>318</v>
+      </c>
+      <c r="B46" t="s">
+        <v>304</v>
+      </c>
+      <c r="C46" t="s">
+        <v>313</v>
+      </c>
+      <c r="D46" t="s">
+        <v>306</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>301</v>
+      </c>
+      <c r="G46" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" t="s">
+        <v>319</v>
+      </c>
+      <c r="I46" t="s">
+        <v>320</v>
+      </c>
+      <c r="J46" t="s">
+        <v>321</v>
+      </c>
+      <c r="K46" t="s">
+        <v>322</v>
+      </c>
+      <c r="L46" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" t="s">
+        <v>34</v>
+      </c>
+      <c r="N46" t="s">
+        <v>322</v>
+      </c>
+      <c r="O46" t="s">
+        <v>34</v>
+      </c>
+      <c r="P46" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>35</v>
+      </c>
+      <c r="R46" t="s">
+        <v>35</v>
+      </c>
+      <c r="S46" t="s">
+        <v>35</v>
+      </c>
+      <c r="T46" t="s">
+        <v>35</v>
+      </c>
+      <c r="U46" t="s">
+        <v>35</v>
+      </c>
+      <c r="V46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" t="s">
+        <v>324</v>
+      </c>
+      <c r="C47" t="s">
+        <v>325</v>
+      </c>
+      <c r="D47" t="s">
+        <v>305</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" t="s">
+        <v>327</v>
+      </c>
+      <c r="I47" t="s">
+        <v>328</v>
+      </c>
+      <c r="J47" t="s">
+        <v>328</v>
+      </c>
+      <c r="K47" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" t="s">
+        <v>34</v>
+      </c>
+      <c r="N47" t="s">
+        <v>34</v>
+      </c>
+      <c r="O47" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>35</v>
+      </c>
+      <c r="R47" t="s">
+        <v>35</v>
+      </c>
+      <c r="S47" t="s">
+        <v>35</v>
+      </c>
+      <c r="T47" t="s">
+        <v>35</v>
+      </c>
+      <c r="U47" t="s">
+        <v>35</v>
+      </c>
+      <c r="V47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" t="s">
+        <v>325</v>
+      </c>
+      <c r="D48" t="s">
+        <v>305</v>
+      </c>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" t="s">
+        <v>331</v>
+      </c>
+      <c r="I48" t="s">
+        <v>332</v>
+      </c>
+      <c r="J48" t="s">
+        <v>332</v>
+      </c>
+      <c r="K48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" t="s">
+        <v>34</v>
+      </c>
+      <c r="N48" t="s">
+        <v>34</v>
+      </c>
+      <c r="O48" t="s">
+        <v>34</v>
+      </c>
+      <c r="P48" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>35</v>
+      </c>
+      <c r="R48" t="s">
+        <v>35</v>
+      </c>
+      <c r="S48" t="s">
+        <v>35</v>
+      </c>
+      <c r="T48" t="s">
+        <v>35</v>
+      </c>
+      <c r="U48" t="s">
+        <v>35</v>
+      </c>
+      <c r="V48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>333</v>
+      </c>
+      <c r="B49" t="s">
+        <v>324</v>
+      </c>
+      <c r="C49" t="s">
+        <v>334</v>
+      </c>
+      <c r="D49" t="s">
+        <v>305</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>335</v>
+      </c>
+      <c r="G49" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" t="s">
+        <v>195</v>
+      </c>
+      <c r="I49" t="s">
+        <v>336</v>
+      </c>
+      <c r="J49" t="s">
+        <v>336</v>
+      </c>
+      <c r="K49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" t="s">
+        <v>34</v>
+      </c>
+      <c r="N49" t="s">
+        <v>34</v>
+      </c>
+      <c r="O49" t="s">
+        <v>34</v>
+      </c>
+      <c r="P49" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>35</v>
+      </c>
+      <c r="R49" t="s">
+        <v>35</v>
+      </c>
+      <c r="S49" t="s">
+        <v>35</v>
+      </c>
+      <c r="T49" t="s">
+        <v>35</v>
+      </c>
+      <c r="U49" t="s">
+        <v>35</v>
+      </c>
+      <c r="V49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B50" t="s">
+        <v>324</v>
+      </c>
+      <c r="C50" t="s">
+        <v>338</v>
+      </c>
+      <c r="D50" t="s">
+        <v>305</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" t="s">
+        <v>339</v>
+      </c>
+      <c r="G50" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" t="s">
+        <v>340</v>
+      </c>
+      <c r="I50" t="s">
+        <v>341</v>
+      </c>
+      <c r="J50" t="s">
+        <v>341</v>
+      </c>
+      <c r="K50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" t="s">
+        <v>34</v>
+      </c>
+      <c r="N50" t="s">
+        <v>34</v>
+      </c>
+      <c r="O50" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>35</v>
+      </c>
+      <c r="R50" t="s">
+        <v>35</v>
+      </c>
+      <c r="S50" t="s">
+        <v>35</v>
+      </c>
+      <c r="T50" t="s">
+        <v>35</v>
+      </c>
+      <c r="U50" t="s">
+        <v>35</v>
+      </c>
+      <c r="V50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>342</v>
+      </c>
+      <c r="B51" t="s">
+        <v>343</v>
+      </c>
+      <c r="C51" t="s">
+        <v>344</v>
+      </c>
+      <c r="D51" t="s">
+        <v>345</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" t="s">
+        <v>279</v>
+      </c>
+      <c r="G51" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" t="s">
+        <v>346</v>
+      </c>
+      <c r="I51" t="s">
+        <v>347</v>
+      </c>
+      <c r="J51" t="s">
+        <v>348</v>
+      </c>
+      <c r="K51" t="s">
+        <v>349</v>
+      </c>
+      <c r="L51" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" t="s">
+        <v>34</v>
+      </c>
+      <c r="N51" t="s">
+        <v>349</v>
+      </c>
+      <c r="O51" t="s">
+        <v>34</v>
+      </c>
+      <c r="P51" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>35</v>
+      </c>
+      <c r="R51" t="s">
+        <v>35</v>
+      </c>
+      <c r="S51" t="s">
+        <v>35</v>
+      </c>
+      <c r="T51" t="s">
+        <v>35</v>
+      </c>
+      <c r="U51" t="s">
+        <v>35</v>
+      </c>
+      <c r="V51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>350</v>
+      </c>
+      <c r="B52" t="s">
+        <v>351</v>
+      </c>
+      <c r="C52" t="s">
+        <v>352</v>
+      </c>
+      <c r="D52" t="s">
+        <v>353</v>
+      </c>
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>279</v>
+      </c>
+      <c r="G52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" t="s">
+        <v>354</v>
+      </c>
+      <c r="I52" t="s">
+        <v>355</v>
+      </c>
+      <c r="J52" t="s">
+        <v>356</v>
+      </c>
+      <c r="K52" t="s">
+        <v>357</v>
+      </c>
+      <c r="L52" t="s">
+        <v>358</v>
+      </c>
+      <c r="M52" t="s">
+        <v>34</v>
+      </c>
+      <c r="N52" t="s">
+        <v>359</v>
+      </c>
+      <c r="O52" t="s">
+        <v>34</v>
+      </c>
+      <c r="P52" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>35</v>
+      </c>
+      <c r="R52" t="s">
+        <v>35</v>
+      </c>
+      <c r="S52" t="s">
+        <v>35</v>
+      </c>
+      <c r="T52" t="s">
+        <v>35</v>
+      </c>
+      <c r="U52" t="s">
+        <v>35</v>
+      </c>
+      <c r="V52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>360</v>
+      </c>
+      <c r="B53" t="s">
+        <v>351</v>
+      </c>
+      <c r="C53" t="s">
+        <v>361</v>
+      </c>
+      <c r="D53" t="s">
+        <v>353</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" t="s">
+        <v>362</v>
+      </c>
+      <c r="G53" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" t="s">
+        <v>363</v>
+      </c>
+      <c r="I53" t="s">
+        <v>364</v>
+      </c>
+      <c r="J53" t="s">
+        <v>365</v>
+      </c>
+      <c r="K53" t="s">
+        <v>366</v>
+      </c>
+      <c r="L53" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53" t="s">
+        <v>34</v>
+      </c>
+      <c r="N53" t="s">
+        <v>366</v>
+      </c>
+      <c r="O53" t="s">
+        <v>34</v>
+      </c>
+      <c r="P53" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>35</v>
+      </c>
+      <c r="R53" t="s">
+        <v>35</v>
+      </c>
+      <c r="S53" t="s">
+        <v>35</v>
+      </c>
+      <c r="T53" t="s">
+        <v>35</v>
+      </c>
+      <c r="U53" t="s">
+        <v>35</v>
+      </c>
+      <c r="V53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>367</v>
+      </c>
+      <c r="B54" t="s">
+        <v>368</v>
+      </c>
+      <c r="C54" t="s">
+        <v>369</v>
+      </c>
+      <c r="D54" t="s">
+        <v>370</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" t="s">
+        <v>307</v>
+      </c>
+      <c r="G54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" t="s">
+        <v>308</v>
+      </c>
+      <c r="I54" t="s">
+        <v>309</v>
+      </c>
+      <c r="J54" t="s">
+        <v>310</v>
+      </c>
+      <c r="K54" t="s">
+        <v>311</v>
+      </c>
+      <c r="L54" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" t="s">
+        <v>34</v>
+      </c>
+      <c r="N54" t="s">
+        <v>311</v>
+      </c>
+      <c r="O54" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>35</v>
+      </c>
+      <c r="R54" t="s">
+        <v>35</v>
+      </c>
+      <c r="S54" t="s">
+        <v>35</v>
+      </c>
+      <c r="T54" t="s">
+        <v>35</v>
+      </c>
+      <c r="U54" t="s">
+        <v>35</v>
+      </c>
+      <c r="V54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>371</v>
+      </c>
+      <c r="B55" t="s">
+        <v>372</v>
+      </c>
+      <c r="C55" t="s">
+        <v>373</v>
+      </c>
+      <c r="D55" t="s">
+        <v>353</v>
+      </c>
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" t="s">
+        <v>307</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" t="s">
+        <v>308</v>
+      </c>
+      <c r="I55" t="s">
+        <v>309</v>
+      </c>
+      <c r="J55" t="s">
+        <v>310</v>
+      </c>
+      <c r="K55" t="s">
+        <v>311</v>
+      </c>
+      <c r="L55" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55" t="s">
+        <v>34</v>
+      </c>
+      <c r="N55" t="s">
+        <v>311</v>
+      </c>
+      <c r="O55" t="s">
+        <v>34</v>
+      </c>
+      <c r="P55" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>35</v>
+      </c>
+      <c r="R55" t="s">
+        <v>35</v>
+      </c>
+      <c r="S55" t="s">
+        <v>35</v>
+      </c>
+      <c r="T55" t="s">
+        <v>35</v>
+      </c>
+      <c r="U55" t="s">
+        <v>35</v>
+      </c>
+      <c r="V55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>374</v>
+      </c>
+      <c r="B56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C56" t="s">
+        <v>376</v>
+      </c>
+      <c r="D56" t="s">
+        <v>377</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" t="s">
+        <v>157</v>
+      </c>
+      <c r="G56" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" t="s">
+        <v>378</v>
+      </c>
+      <c r="I56" t="s">
+        <v>379</v>
+      </c>
+      <c r="J56" t="s">
+        <v>34</v>
+      </c>
+      <c r="K56" t="s">
+        <v>379</v>
+      </c>
+      <c r="L56" t="s">
+        <v>379</v>
+      </c>
+      <c r="M56" t="s">
+        <v>34</v>
+      </c>
+      <c r="N56" t="s">
+        <v>34</v>
+      </c>
+      <c r="O56" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>35</v>
+      </c>
+      <c r="R56" t="s">
+        <v>35</v>
+      </c>
+      <c r="S56" t="s">
+        <v>35</v>
+      </c>
+      <c r="T56" t="s">
+        <v>35</v>
+      </c>
+      <c r="U56" t="s">
+        <v>35</v>
+      </c>
+      <c r="V56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>380</v>
+      </c>
+      <c r="B57" t="s">
+        <v>381</v>
+      </c>
+      <c r="C57" t="s">
+        <v>382</v>
+      </c>
+      <c r="D57" t="s">
+        <v>383</v>
+      </c>
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" t="s">
+        <v>384</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" t="s">
+        <v>385</v>
+      </c>
+      <c r="I57" t="s">
+        <v>386</v>
+      </c>
+      <c r="J57" t="s">
+        <v>387</v>
+      </c>
+      <c r="K57" t="s">
+        <v>388</v>
+      </c>
+      <c r="L57" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" t="s">
+        <v>34</v>
+      </c>
+      <c r="N57" t="s">
+        <v>388</v>
+      </c>
+      <c r="O57" t="s">
+        <v>34</v>
+      </c>
+      <c r="P57" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>35</v>
+      </c>
+      <c r="R57" t="s">
+        <v>35</v>
+      </c>
+      <c r="S57" t="s">
+        <v>35</v>
+      </c>
+      <c r="T57" t="s">
+        <v>35</v>
+      </c>
+      <c r="U57" t="s">
+        <v>35</v>
+      </c>
+      <c r="V57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>389</v>
+      </c>
+      <c r="B58" t="s">
+        <v>381</v>
+      </c>
+      <c r="C58" t="s">
+        <v>376</v>
+      </c>
+      <c r="D58" t="s">
+        <v>377</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" t="s">
+        <v>390</v>
+      </c>
+      <c r="G58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" t="s">
+        <v>203</v>
+      </c>
+      <c r="I58" t="s">
+        <v>391</v>
+      </c>
+      <c r="J58" t="s">
+        <v>392</v>
+      </c>
+      <c r="K58" t="s">
+        <v>393</v>
+      </c>
+      <c r="L58" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" t="s">
+        <v>34</v>
+      </c>
+      <c r="N58" t="s">
+        <v>393</v>
+      </c>
+      <c r="O58" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>35</v>
+      </c>
+      <c r="R58" t="s">
+        <v>35</v>
+      </c>
+      <c r="S58" t="s">
+        <v>35</v>
+      </c>
+      <c r="T58" t="s">
+        <v>35</v>
+      </c>
+      <c r="U58" t="s">
+        <v>35</v>
+      </c>
+      <c r="V58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>394</v>
+      </c>
+      <c r="B59" t="s">
+        <v>395</v>
+      </c>
+      <c r="C59" t="s">
+        <v>370</v>
+      </c>
+      <c r="D59" t="s">
+        <v>396</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" t="s">
+        <v>307</v>
+      </c>
+      <c r="G59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" t="s">
+        <v>308</v>
+      </c>
+      <c r="I59" t="s">
+        <v>309</v>
+      </c>
+      <c r="J59" t="s">
+        <v>310</v>
+      </c>
+      <c r="K59" t="s">
+        <v>311</v>
+      </c>
+      <c r="L59" t="s">
+        <v>34</v>
+      </c>
+      <c r="M59" t="s">
+        <v>34</v>
+      </c>
+      <c r="N59" t="s">
+        <v>311</v>
+      </c>
+      <c r="O59" t="s">
+        <v>34</v>
+      </c>
+      <c r="P59" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>35</v>
+      </c>
+      <c r="R59" t="s">
+        <v>35</v>
+      </c>
+      <c r="S59" t="s">
+        <v>35</v>
+      </c>
+      <c r="T59" t="s">
+        <v>35</v>
+      </c>
+      <c r="U59" t="s">
+        <v>35</v>
+      </c>
+      <c r="V59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>397</v>
+      </c>
+      <c r="B60" t="s">
+        <v>398</v>
+      </c>
+      <c r="C60" t="s">
+        <v>399</v>
+      </c>
+      <c r="D60" t="s">
+        <v>400</v>
+      </c>
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" t="s">
+        <v>307</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" t="s">
+        <v>401</v>
+      </c>
+      <c r="I60" t="s">
+        <v>402</v>
+      </c>
+      <c r="J60" t="s">
+        <v>403</v>
+      </c>
+      <c r="K60" t="s">
+        <v>404</v>
+      </c>
+      <c r="L60" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" t="s">
+        <v>34</v>
+      </c>
+      <c r="N60" t="s">
+        <v>404</v>
+      </c>
+      <c r="O60" t="s">
+        <v>34</v>
+      </c>
+      <c r="P60" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>35</v>
+      </c>
+      <c r="R60" t="s">
+        <v>35</v>
+      </c>
+      <c r="S60" t="s">
+        <v>35</v>
+      </c>
+      <c r="T60" t="s">
+        <v>35</v>
+      </c>
+      <c r="U60" t="s">
+        <v>35</v>
+      </c>
+      <c r="V60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>405</v>
+      </c>
+      <c r="B61" t="s">
+        <v>406</v>
+      </c>
+      <c r="C61" t="s">
+        <v>407</v>
+      </c>
+      <c r="D61" t="s">
+        <v>408</v>
+      </c>
+      <c r="E61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" t="s">
+        <v>409</v>
+      </c>
+      <c r="G61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" t="s">
+        <v>410</v>
+      </c>
+      <c r="I61" t="s">
+        <v>341</v>
+      </c>
+      <c r="J61" t="s">
+        <v>411</v>
+      </c>
+      <c r="K61" t="s">
+        <v>412</v>
+      </c>
+      <c r="L61" t="s">
+        <v>187</v>
+      </c>
+      <c r="M61" t="s">
+        <v>34</v>
+      </c>
+      <c r="N61" t="s">
+        <v>413</v>
+      </c>
+      <c r="O61" t="s">
+        <v>34</v>
+      </c>
+      <c r="P61" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>35</v>
+      </c>
+      <c r="R61" t="s">
+        <v>35</v>
+      </c>
+      <c r="S61" t="s">
+        <v>35</v>
+      </c>
+      <c r="T61" t="s">
+        <v>35</v>
+      </c>
+      <c r="U61" t="s">
+        <v>35</v>
+      </c>
+      <c r="V61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>414</v>
+      </c>
+      <c r="B62" t="s">
+        <v>406</v>
+      </c>
+      <c r="C62" t="s">
+        <v>415</v>
+      </c>
+      <c r="D62" t="s">
+        <v>416</v>
+      </c>
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" t="s">
+        <v>307</v>
+      </c>
+      <c r="G62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" t="s">
+        <v>417</v>
+      </c>
+      <c r="I62" t="s">
+        <v>418</v>
+      </c>
+      <c r="J62" t="s">
+        <v>419</v>
+      </c>
+      <c r="K62" t="s">
+        <v>420</v>
+      </c>
+      <c r="L62" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" t="s">
+        <v>34</v>
+      </c>
+      <c r="N62" t="s">
+        <v>420</v>
+      </c>
+      <c r="O62" t="s">
+        <v>34</v>
+      </c>
+      <c r="P62" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>35</v>
+      </c>
+      <c r="R62" t="s">
+        <v>35</v>
+      </c>
+      <c r="S62" t="s">
+        <v>35</v>
+      </c>
+      <c r="T62" t="s">
+        <v>35</v>
+      </c>
+      <c r="U62" t="s">
+        <v>35</v>
+      </c>
+      <c r="V62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>421</v>
+      </c>
+      <c r="B63" t="s">
+        <v>406</v>
+      </c>
+      <c r="C63" t="s">
+        <v>415</v>
+      </c>
+      <c r="D63" t="s">
+        <v>416</v>
+      </c>
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" t="s">
+        <v>422</v>
+      </c>
+      <c r="G63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" t="s">
+        <v>417</v>
+      </c>
+      <c r="I63" t="s">
+        <v>423</v>
+      </c>
+      <c r="J63" t="s">
+        <v>424</v>
+      </c>
+      <c r="K63" t="s">
+        <v>425</v>
+      </c>
+      <c r="L63" t="s">
+        <v>34</v>
+      </c>
+      <c r="M63" t="s">
+        <v>34</v>
+      </c>
+      <c r="N63" t="s">
+        <v>425</v>
+      </c>
+      <c r="O63" t="s">
+        <v>34</v>
+      </c>
+      <c r="P63" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>35</v>
+      </c>
+      <c r="R63" t="s">
+        <v>35</v>
+      </c>
+      <c r="S63" t="s">
+        <v>35</v>
+      </c>
+      <c r="T63" t="s">
+        <v>35</v>
+      </c>
+      <c r="U63" t="s">
+        <v>35</v>
+      </c>
+      <c r="V63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>426</v>
+      </c>
+      <c r="B64" t="s">
+        <v>427</v>
+      </c>
+      <c r="C64" t="s">
+        <v>428</v>
+      </c>
+      <c r="D64" t="s">
+        <v>406</v>
+      </c>
+      <c r="E64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" t="s">
+        <v>429</v>
+      </c>
+      <c r="G64" t="s">
+        <v>143</v>
+      </c>
+      <c r="H64" t="s">
+        <v>430</v>
+      </c>
+      <c r="I64" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" t="s">
+        <v>34</v>
+      </c>
+      <c r="K64" t="s">
+        <v>430</v>
+      </c>
+      <c r="L64" t="s">
+        <v>34</v>
+      </c>
+      <c r="M64" t="s">
+        <v>34</v>
+      </c>
+      <c r="N64" t="s">
+        <v>34</v>
+      </c>
+      <c r="O64" t="s">
+        <v>34</v>
+      </c>
+      <c r="P64" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>35</v>
+      </c>
+      <c r="R64" t="s">
+        <v>35</v>
+      </c>
+      <c r="S64" t="s">
+        <v>35</v>
+      </c>
+      <c r="T64" t="s">
+        <v>35</v>
+      </c>
+      <c r="U64" t="s">
+        <v>35</v>
+      </c>
+      <c r="V64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>431</v>
+      </c>
+      <c r="B65" t="s">
+        <v>432</v>
+      </c>
+      <c r="C65" t="s">
+        <v>433</v>
+      </c>
+      <c r="D65" t="s">
+        <v>434</v>
+      </c>
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" t="s">
+        <v>435</v>
+      </c>
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" t="s">
+        <v>436</v>
+      </c>
+      <c r="I65" t="s">
+        <v>437</v>
+      </c>
+      <c r="J65" t="s">
+        <v>438</v>
+      </c>
+      <c r="K65" t="s">
+        <v>439</v>
+      </c>
+      <c r="L65" t="s">
+        <v>34</v>
+      </c>
+      <c r="M65" t="s">
+        <v>34</v>
+      </c>
+      <c r="N65" t="s">
+        <v>439</v>
+      </c>
+      <c r="O65" t="s">
+        <v>34</v>
+      </c>
+      <c r="P65" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>35</v>
+      </c>
+      <c r="R65" t="s">
+        <v>35</v>
+      </c>
+      <c r="S65" t="s">
+        <v>35</v>
+      </c>
+      <c r="T65" t="s">
+        <v>35</v>
+      </c>
+      <c r="U65" t="s">
+        <v>35</v>
+      </c>
+      <c r="V65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>440</v>
+      </c>
+      <c r="B66" t="s">
+        <v>441</v>
+      </c>
+      <c r="C66" t="s">
+        <v>442</v>
+      </c>
+      <c r="D66" t="s">
+        <v>408</v>
+      </c>
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66" t="s">
+        <v>143</v>
+      </c>
+      <c r="H66" t="s">
+        <v>443</v>
+      </c>
+      <c r="I66" t="s">
+        <v>444</v>
+      </c>
+      <c r="J66" t="s">
+        <v>34</v>
+      </c>
+      <c r="K66" t="s">
+        <v>444</v>
+      </c>
+      <c r="L66" t="s">
+        <v>444</v>
+      </c>
+      <c r="M66" t="s">
+        <v>34</v>
+      </c>
+      <c r="N66" t="s">
+        <v>34</v>
+      </c>
+      <c r="O66" t="s">
+        <v>34</v>
+      </c>
+      <c r="P66" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>35</v>
+      </c>
+      <c r="R66" t="s">
+        <v>35</v>
+      </c>
+      <c r="S66" t="s">
+        <v>35</v>
+      </c>
+      <c r="T66" t="s">
+        <v>35</v>
+      </c>
+      <c r="U66" t="s">
+        <v>35</v>
+      </c>
+      <c r="V66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>445</v>
+      </c>
+      <c r="B67" t="s">
+        <v>446</v>
+      </c>
+      <c r="C67" t="s">
+        <v>447</v>
+      </c>
+      <c r="D67" t="s">
+        <v>448</v>
+      </c>
+      <c r="E67" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" t="s">
+        <v>307</v>
+      </c>
+      <c r="G67" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" t="s">
+        <v>449</v>
+      </c>
+      <c r="I67" t="s">
+        <v>402</v>
+      </c>
+      <c r="J67" t="s">
+        <v>403</v>
+      </c>
+      <c r="K67" t="s">
+        <v>404</v>
+      </c>
+      <c r="L67" t="s">
+        <v>34</v>
+      </c>
+      <c r="M67" t="s">
+        <v>34</v>
+      </c>
+      <c r="N67" t="s">
+        <v>404</v>
+      </c>
+      <c r="O67" t="s">
+        <v>34</v>
+      </c>
+      <c r="P67" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>35</v>
+      </c>
+      <c r="R67" t="s">
+        <v>35</v>
+      </c>
+      <c r="S67" t="s">
+        <v>35</v>
+      </c>
+      <c r="T67" t="s">
+        <v>35</v>
+      </c>
+      <c r="U67" t="s">
+        <v>35</v>
+      </c>
+      <c r="V67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>450</v>
+      </c>
+      <c r="B68" t="s">
+        <v>451</v>
+      </c>
+      <c r="C68" t="s">
+        <v>452</v>
+      </c>
+      <c r="D68" t="s">
+        <v>453</v>
+      </c>
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" t="s">
+        <v>271</v>
+      </c>
+      <c r="G68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" t="s">
+        <v>272</v>
+      </c>
+      <c r="I68" t="s">
+        <v>454</v>
+      </c>
+      <c r="J68" t="s">
+        <v>455</v>
+      </c>
+      <c r="K68" t="s">
+        <v>456</v>
+      </c>
+      <c r="L68" t="s">
+        <v>457</v>
+      </c>
+      <c r="M68" t="s">
+        <v>34</v>
+      </c>
+      <c r="N68" t="s">
+        <v>458</v>
+      </c>
+      <c r="O68" t="s">
+        <v>34</v>
+      </c>
+      <c r="P68" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>35</v>
+      </c>
+      <c r="R68" t="s">
+        <v>35</v>
+      </c>
+      <c r="S68" t="s">
+        <v>35</v>
+      </c>
+      <c r="T68" t="s">
+        <v>35</v>
+      </c>
+      <c r="U68" t="s">
+        <v>35</v>
+      </c>
+      <c r="V68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>459</v>
+      </c>
+      <c r="B69" t="s">
+        <v>460</v>
+      </c>
+      <c r="C69" t="s">
+        <v>461</v>
+      </c>
+      <c r="D69" t="s">
+        <v>446</v>
+      </c>
+      <c r="E69" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" t="s">
+        <v>217</v>
+      </c>
+      <c r="G69" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" t="s">
+        <v>203</v>
+      </c>
+      <c r="I69" t="s">
+        <v>462</v>
+      </c>
+      <c r="J69" t="s">
+        <v>462</v>
+      </c>
+      <c r="K69" t="s">
+        <v>34</v>
+      </c>
+      <c r="L69" t="s">
+        <v>34</v>
+      </c>
+      <c r="M69" t="s">
+        <v>34</v>
+      </c>
+      <c r="N69" t="s">
+        <v>34</v>
+      </c>
+      <c r="O69" t="s">
+        <v>34</v>
+      </c>
+      <c r="P69" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>35</v>
+      </c>
+      <c r="R69" t="s">
+        <v>35</v>
+      </c>
+      <c r="S69" t="s">
+        <v>35</v>
+      </c>
+      <c r="T69" t="s">
+        <v>35</v>
+      </c>
+      <c r="U69" t="s">
+        <v>35</v>
+      </c>
+      <c r="V69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>463</v>
+      </c>
+      <c r="B70" t="s">
+        <v>460</v>
+      </c>
+      <c r="C70" t="s">
+        <v>461</v>
+      </c>
+      <c r="D70" t="s">
+        <v>446</v>
+      </c>
+      <c r="E70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" t="s">
+        <v>184</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s">
+        <v>464</v>
+      </c>
+      <c r="I70" t="s">
+        <v>465</v>
+      </c>
+      <c r="J70" t="s">
+        <v>465</v>
+      </c>
+      <c r="K70" t="s">
+        <v>34</v>
+      </c>
+      <c r="L70" t="s">
+        <v>34</v>
+      </c>
+      <c r="M70" t="s">
+        <v>34</v>
+      </c>
+      <c r="N70" t="s">
+        <v>34</v>
+      </c>
+      <c r="O70" t="s">
+        <v>34</v>
+      </c>
+      <c r="P70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>35</v>
+      </c>
+      <c r="R70" t="s">
+        <v>35</v>
+      </c>
+      <c r="S70" t="s">
+        <v>35</v>
+      </c>
+      <c r="T70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U70" t="s">
+        <v>35</v>
+      </c>
+      <c r="V70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>466</v>
+      </c>
+      <c r="B71" t="s">
+        <v>467</v>
+      </c>
+      <c r="C71" t="s">
+        <v>468</v>
+      </c>
+      <c r="D71" t="s">
+        <v>446</v>
+      </c>
+      <c r="E71" t="s">
+        <v>469</v>
+      </c>
+      <c r="F71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G71" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" t="s">
+        <v>470</v>
+      </c>
+      <c r="I71" t="s">
+        <v>471</v>
+      </c>
+      <c r="J71" t="s">
+        <v>472</v>
+      </c>
+      <c r="K71" t="s">
+        <v>473</v>
+      </c>
+      <c r="L71" t="s">
+        <v>473</v>
+      </c>
+      <c r="M71" t="s">
+        <v>34</v>
+      </c>
+      <c r="N71" t="s">
+        <v>34</v>
+      </c>
+      <c r="O71" t="s">
+        <v>34</v>
+      </c>
+      <c r="P71" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>35</v>
+      </c>
+      <c r="R71" t="s">
+        <v>35</v>
+      </c>
+      <c r="S71" t="s">
+        <v>35</v>
+      </c>
+      <c r="T71" t="s">
+        <v>35</v>
+      </c>
+      <c r="U71" t="s">
+        <v>35</v>
+      </c>
+      <c r="V71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>474</v>
+      </c>
+      <c r="B72" t="s">
+        <v>467</v>
+      </c>
+      <c r="C72" t="s">
+        <v>468</v>
+      </c>
+      <c r="D72" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" t="s">
+        <v>470</v>
+      </c>
+      <c r="I72" t="s">
+        <v>475</v>
+      </c>
+      <c r="J72" t="s">
+        <v>476</v>
+      </c>
+      <c r="K72" t="s">
+        <v>473</v>
+      </c>
+      <c r="L72" t="s">
+        <v>473</v>
+      </c>
+      <c r="M72" t="s">
+        <v>34</v>
+      </c>
+      <c r="N72" t="s">
+        <v>34</v>
+      </c>
+      <c r="O72" t="s">
+        <v>34</v>
+      </c>
+      <c r="P72" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>35</v>
+      </c>
+      <c r="R72" t="s">
+        <v>35</v>
+      </c>
+      <c r="S72" t="s">
+        <v>35</v>
+      </c>
+      <c r="T72" t="s">
+        <v>35</v>
+      </c>
+      <c r="U72" t="s">
+        <v>35</v>
+      </c>
+      <c r="V72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>477</v>
+      </c>
+      <c r="B73" t="s">
+        <v>467</v>
+      </c>
+      <c r="C73" t="s">
+        <v>468</v>
+      </c>
+      <c r="D73" t="s">
+        <v>446</v>
+      </c>
+      <c r="E73" t="s">
+        <v>469</v>
+      </c>
+      <c r="F73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" t="s">
+        <v>478</v>
+      </c>
+      <c r="I73" t="s">
+        <v>479</v>
+      </c>
+      <c r="J73" t="s">
+        <v>34</v>
+      </c>
+      <c r="K73" t="s">
+        <v>479</v>
+      </c>
+      <c r="L73" t="s">
+        <v>479</v>
+      </c>
+      <c r="M73" t="s">
+        <v>34</v>
+      </c>
+      <c r="N73" t="s">
+        <v>34</v>
+      </c>
+      <c r="O73" t="s">
+        <v>34</v>
+      </c>
+      <c r="P73" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>35</v>
+      </c>
+      <c r="R73" t="s">
+        <v>35</v>
+      </c>
+      <c r="S73" t="s">
+        <v>35</v>
+      </c>
+      <c r="T73" t="s">
+        <v>35</v>
+      </c>
+      <c r="U73" t="s">
+        <v>35</v>
+      </c>
+      <c r="V73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>480</v>
+      </c>
+      <c r="B74" t="s">
+        <v>467</v>
+      </c>
+      <c r="C74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D74" t="s">
+        <v>383</v>
+      </c>
+      <c r="E74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" t="s">
+        <v>48</v>
+      </c>
+      <c r="G74" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" t="s">
+        <v>478</v>
+      </c>
+      <c r="I74" t="s">
+        <v>481</v>
+      </c>
+      <c r="J74" t="s">
+        <v>482</v>
+      </c>
+      <c r="K74" t="s">
+        <v>121</v>
+      </c>
+      <c r="L74" t="s">
+        <v>479</v>
+      </c>
+      <c r="M74" t="s">
+        <v>34</v>
+      </c>
+      <c r="N74" t="s">
+        <v>483</v>
+      </c>
+      <c r="O74" t="s">
+        <v>34</v>
+      </c>
+      <c r="P74" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>35</v>
+      </c>
+      <c r="R74" t="s">
+        <v>35</v>
+      </c>
+      <c r="S74" t="s">
+        <v>35</v>
+      </c>
+      <c r="T74" t="s">
+        <v>35</v>
+      </c>
+      <c r="U74" t="s">
+        <v>35</v>
+      </c>
+      <c r="V74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>484</v>
+      </c>
+      <c r="B75" t="s">
+        <v>467</v>
+      </c>
+      <c r="C75" t="s">
+        <v>485</v>
+      </c>
+      <c r="D75" t="s">
+        <v>446</v>
+      </c>
+      <c r="E75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" t="s">
+        <v>48</v>
+      </c>
+      <c r="G75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" t="s">
+        <v>486</v>
+      </c>
+      <c r="I75" t="s">
+        <v>487</v>
+      </c>
+      <c r="J75" t="s">
+        <v>488</v>
+      </c>
+      <c r="K75" t="s">
+        <v>489</v>
+      </c>
+      <c r="L75" t="s">
+        <v>489</v>
+      </c>
+      <c r="M75" t="s">
+        <v>34</v>
+      </c>
+      <c r="N75" t="s">
+        <v>34</v>
+      </c>
+      <c r="O75" t="s">
+        <v>34</v>
+      </c>
+      <c r="P75" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>35</v>
+      </c>
+      <c r="R75" t="s">
+        <v>35</v>
+      </c>
+      <c r="S75" t="s">
+        <v>35</v>
+      </c>
+      <c r="T75" t="s">
+        <v>35</v>
+      </c>
+      <c r="U75" t="s">
+        <v>35</v>
+      </c>
+      <c r="V75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>490</v>
+      </c>
+      <c r="B76" t="s">
+        <v>491</v>
+      </c>
+      <c r="C76" t="s">
+        <v>492</v>
+      </c>
+      <c r="D76" t="s">
+        <v>493</v>
+      </c>
+      <c r="E76" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" t="s">
+        <v>70</v>
+      </c>
+      <c r="G76" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" t="s">
+        <v>494</v>
+      </c>
+      <c r="I76" t="s">
+        <v>495</v>
+      </c>
+      <c r="J76" t="s">
+        <v>495</v>
+      </c>
+      <c r="K76" t="s">
+        <v>34</v>
+      </c>
+      <c r="L76" t="s">
+        <v>34</v>
+      </c>
+      <c r="M76" t="s">
+        <v>34</v>
+      </c>
+      <c r="N76" t="s">
+        <v>34</v>
+      </c>
+      <c r="O76" t="s">
+        <v>34</v>
+      </c>
+      <c r="P76" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>35</v>
+      </c>
+      <c r="R76" t="s">
+        <v>35</v>
+      </c>
+      <c r="S76" t="s">
+        <v>35</v>
+      </c>
+      <c r="T76" t="s">
+        <v>35</v>
+      </c>
+      <c r="U76" t="s">
+        <v>35</v>
+      </c>
+      <c r="V76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
+        <v>496</v>
+      </c>
+      <c r="H77" t="s">
+        <v>497</v>
+      </c>
+      <c r="I77" t="s">
+        <v>498</v>
+      </c>
+      <c r="J77" t="s">
+        <v>499</v>
+      </c>
+      <c r="K77" t="s">
+        <v>500</v>
+      </c>
+      <c r="L77" t="s">
+        <v>501</v>
+      </c>
+      <c r="M77" t="s">
+        <v>75</v>
+      </c>
+      <c r="N77" t="s">
+        <v>502</v>
+      </c>
+      <c r="O77" t="s">
+        <v>34</v>
+      </c>
+      <c r="P77" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>35</v>
+      </c>
+      <c r="R77" t="s">
+        <v>35</v>
+      </c>
+      <c r="S77" t="s">
+        <v>35</v>
+      </c>
+      <c r="T77" t="s">
+        <v>35</v>
+      </c>
+      <c r="U77" t="s">
+        <v>35</v>
+      </c>
+      <c r="V77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>503</v>
+      </c>
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" t="s">
+        <v>35</v>
+      </c>
+      <c r="I78" t="s">
+        <v>35</v>
+      </c>
+      <c r="J78" t="s">
+        <v>35</v>
+      </c>
+      <c r="K78" t="s">
+        <v>35</v>
+      </c>
+      <c r="L78" t="s">
+        <v>35</v>
+      </c>
+      <c r="M78" t="s">
+        <v>35</v>
+      </c>
+      <c r="N78" t="s">
+        <v>35</v>
+      </c>
+      <c r="O78" t="s">
+        <v>35</v>
+      </c>
+      <c r="P78" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>35</v>
+      </c>
+      <c r="R78" t="s">
+        <v>35</v>
+      </c>
+      <c r="S78" t="s">
+        <v>35</v>
+      </c>
+      <c r="T78" t="s">
+        <v>35</v>
+      </c>
+      <c r="U78" t="s">
+        <v>35</v>
+      </c>
+      <c r="V78" t="s">
         <v>35</v>
       </c>
     </row>
